--- a/submission_forms/nebraska_at_kearney_university/Lighting_Tracking_Sheet_UNK_Itchy.xlsx
+++ b/submission_forms/nebraska_at_kearney_university/Lighting_Tracking_Sheet_UNK_Itchy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="212" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="106" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ACDA Tracking Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,14 +14,16 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'ACDA Tracking Sheet'!$C$3:$O$137</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'ACDA Tracking Sheet'!$16:$17</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'ACDA Tracking Sheet'!$C$3:$O$137</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">'ACDA Tracking Sheet'!$C$3:$O$137</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">'ACDA Tracking Sheet'!$16:$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">'ACDA Tracking Sheet'!$16:$17</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="98">
   <si>
     <t>Please submit by:</t>
   </si>
@@ -84,7 +86,7 @@
     <t>Technical Contact Person:</t>
   </si>
   <si>
-    <t>Del DeLorm  </t>
+    <t>Del DeLorm</t>
   </si>
   <si>
     <t>Phone:</t>
@@ -99,6 +101,9 @@
     <t>delormmj@unk.edu</t>
   </si>
   <si>
+    <t>Ben and Brianna assuming blank cells at 0%</t>
+  </si>
+  <si>
     <t>2. NEXT, fill in fade time for each cue [mins:secs.ms]  If single number used, then seconds will be assumed. Split time [up/down] may be used.</t>
   </si>
   <si>
@@ -271,7 +276,7 @@
   </si>
   <si>
     <r>
-      <t>Side - Low 'shin'    </t>
+      <t>Side - Low 'shin'</t>
     </r>
     <r>
       <rPr>
@@ -294,21 +299,6 @@
     <t>3 B SR</t>
   </si>
   <si>
-    <r>
-      <t>Side - Low 'shin'   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> L201</t>
-    </r>
-  </si>
-  <si>
     <t>4 B SR</t>
   </si>
   <si>
@@ -323,7 +313,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>     L204</t>
+      <t>L204</t>
     </r>
   </si>
   <si>
@@ -343,40 +333,7 @@
   </si>
   <si>
     <r>
-      <t>Side - Mid 'chest'  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>   L204</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Side - Low 'shin'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>     R52</t>
-    </r>
-  </si>
-  <si>
-    <t>1 B SL</t>
-  </si>
-  <si>
-    <r>
-      <t>Side - Low 'shin'     </t>
     </r>
     <r>
       <rPr>
@@ -390,25 +347,13 @@
     </r>
   </si>
   <si>
+    <t>1 B SL</t>
+  </si>
+  <si>
     <t>2 B SL</t>
   </si>
   <si>
     <t>3 B SL</t>
-  </si>
-  <si>
-    <r>
-      <t>Side - Low 'shin'    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> R52</t>
-    </r>
   </si>
   <si>
     <t>4 B SL</t>
@@ -425,22 +370,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>     R52</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Side - Mid 'chest' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>    R52</t>
+      <t>R52</t>
     </r>
   </si>
   <si>
@@ -662,14 +592,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FF003300"/>
+        <bgColor rgb="FF101010"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF003300"/>
-        <bgColor rgb="FF101010"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1031,20 +961,88 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="134">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1052,83 +1050,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1136,39 +1062,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="15" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="15" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1176,23 +1102,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1200,7 +1126,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1208,35 +1134,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1244,7 +1174,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1252,43 +1182,43 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1296,11 +1226,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1312,11 +1242,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1324,7 +1254,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1332,19 +1262,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1352,7 +1282,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1364,11 +1294,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1376,199 +1306,195 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1580,7 +1506,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
@@ -1651,15 +1577,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>101520</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:colOff>128520</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>753840</xdr:colOff>
+      <xdr:colOff>780480</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1672,8 +1598,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1190880" y="21606840"/>
-          <a:ext cx="652320" cy="290880"/>
+          <a:off x="1217880" y="21597840"/>
+          <a:ext cx="651960" cy="290520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1695,348 +1621,352 @@
   </sheetPr>
   <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1050" topLeftCell="A26" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="3.88775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.1122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.55612244897959"/>
-    <col collapsed="false" hidden="false" max="15" min="6" style="1" width="5.88775510204082"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="3.66326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.88775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1122448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.55612244897959"/>
+    <col collapsed="false" hidden="false" max="15" min="6" style="0" width="5.88775510204082"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.66326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.5561224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="4"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="4"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="23" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="4"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="24" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="4"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="24" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="4"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="38" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="4"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="40" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="39"/>
+      <c r="E13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42" t="s">
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="44"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="43"/>
     </row>
     <row r="14" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="4"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="4"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
       <c r="C16" s="50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
@@ -2074,10 +2004,10 @@
       <c r="Q16" s="56"/>
     </row>
     <row r="17" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
@@ -2101,14 +2031,14 @@
       <c r="M17" s="59"/>
       <c r="N17" s="59"/>
       <c r="O17" s="60"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="4"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
@@ -2122,12 +2052,12 @@
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
       <c r="O18" s="63"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="4"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="64"/>
       <c r="D19" s="65"/>
       <c r="E19" s="66"/>
@@ -2141,41 +2071,41 @@
       <c r="M19" s="67"/>
       <c r="N19" s="67"/>
       <c r="O19" s="67"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="4"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="4"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
       <c r="C21" s="68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F21" s="71" t="n">
         <v>1</v>
@@ -2211,16 +2141,16 @@
       <c r="Q21" s="56"/>
     </row>
     <row r="22" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="73" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E22" s="75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F22" s="76"/>
       <c r="G22" s="76"/>
@@ -2232,20 +2162,20 @@
       <c r="M22" s="76"/>
       <c r="N22" s="76"/>
       <c r="O22" s="76"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="4"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="73" t="n">
         <v>2</v>
       </c>
       <c r="D23" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="75" t="s">
         <v>27</v>
-      </c>
-      <c r="E23" s="75" t="s">
-        <v>26</v>
       </c>
       <c r="F23" s="76"/>
       <c r="G23" s="76"/>
@@ -2257,20 +2187,20 @@
       <c r="M23" s="76"/>
       <c r="N23" s="76"/>
       <c r="O23" s="76"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="4"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="73" t="n">
         <v>3</v>
       </c>
       <c r="D24" s="74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24" s="75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F24" s="76"/>
       <c r="G24" s="76"/>
@@ -2282,20 +2212,20 @@
       <c r="M24" s="76"/>
       <c r="N24" s="76"/>
       <c r="O24" s="76"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="4"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="73" t="n">
         <v>4</v>
       </c>
       <c r="D25" s="74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" s="75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F25" s="76"/>
       <c r="G25" s="76" t="n">
@@ -2313,27 +2243,27 @@
       <c r="M25" s="76"/>
       <c r="N25" s="76"/>
       <c r="O25" s="76"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="4"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" s="74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E26" s="75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F26" s="76"/>
       <c r="G26" s="76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26" s="76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I26" s="76"/>
       <c r="J26" s="76"/>
@@ -2342,20 +2272,20 @@
       <c r="M26" s="76"/>
       <c r="N26" s="76"/>
       <c r="O26" s="76"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="4"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="73" t="n">
         <v>5</v>
       </c>
       <c r="D27" s="74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E27" s="75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F27" s="76" t="n">
         <v>25</v>
@@ -2373,20 +2303,20 @@
       <c r="M27" s="76"/>
       <c r="N27" s="76"/>
       <c r="O27" s="76"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="4"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="73" t="n">
         <v>9</v>
       </c>
       <c r="D28" s="74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E28" s="75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F28" s="76"/>
       <c r="G28" s="76"/>
@@ -2400,20 +2330,20 @@
       <c r="M28" s="76"/>
       <c r="N28" s="76"/>
       <c r="O28" s="76"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="4"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="73" t="n">
         <v>11</v>
       </c>
       <c r="D29" s="74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" s="76"/>
       <c r="G29" s="76"/>
@@ -2429,20 +2359,20 @@
       <c r="M29" s="76"/>
       <c r="N29" s="76"/>
       <c r="O29" s="76"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="4"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="73" t="n">
         <v>12</v>
       </c>
       <c r="D30" s="74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" s="75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F30" s="76"/>
       <c r="G30" s="76"/>
@@ -2458,20 +2388,20 @@
       <c r="M30" s="76"/>
       <c r="N30" s="76"/>
       <c r="O30" s="76"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="4"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="73" t="n">
         <v>14</v>
       </c>
       <c r="D31" s="74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E31" s="75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="76"/>
       <c r="G31" s="76" t="n">
@@ -2487,20 +2417,20 @@
       <c r="M31" s="76"/>
       <c r="N31" s="76"/>
       <c r="O31" s="76"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="4"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="73" t="n">
         <v>15</v>
       </c>
       <c r="D32" s="74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E32" s="75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" s="76"/>
       <c r="G32" s="76"/>
@@ -2516,20 +2446,20 @@
       <c r="M32" s="76"/>
       <c r="N32" s="76"/>
       <c r="O32" s="76"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="4"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="73" t="n">
         <v>16</v>
       </c>
       <c r="D33" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" s="75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33" s="76"/>
       <c r="G33" s="76" t="n">
@@ -2545,20 +2475,20 @@
       <c r="M33" s="76"/>
       <c r="N33" s="76"/>
       <c r="O33" s="76"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="4"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="73" t="n">
         <v>40</v>
       </c>
       <c r="D34" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="75" t="s">
         <v>42</v>
-      </c>
-      <c r="E34" s="75" t="s">
-        <v>41</v>
       </c>
       <c r="F34" s="76"/>
       <c r="G34" s="76" t="n">
@@ -2576,27 +2506,27 @@
       <c r="M34" s="76"/>
       <c r="N34" s="76"/>
       <c r="O34" s="76"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="4"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" s="74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E35" s="75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" s="76"/>
       <c r="G35" s="76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H35" s="76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I35" s="76"/>
       <c r="J35" s="76"/>
@@ -2605,12 +2535,12 @@
       <c r="M35" s="76"/>
       <c r="N35" s="76"/>
       <c r="O35" s="76"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="4"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="78"/>
       <c r="D36" s="79"/>
       <c r="E36" s="80"/>
@@ -2624,41 +2554,41 @@
       <c r="M36" s="80"/>
       <c r="N36" s="80"/>
       <c r="O36" s="80"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="4"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="4"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="48"/>
       <c r="B38" s="49"/>
       <c r="C38" s="81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E38" s="83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F38" s="84" t="n">
         <v>1</v>
@@ -2694,16 +2624,16 @@
       <c r="Q38" s="56"/>
     </row>
     <row r="39" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="86" t="n">
         <v>1</v>
       </c>
       <c r="D39" s="87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F39" s="89" t="str">
         <f aca="false">IF(F$22="","",F$22)</f>
@@ -2745,122 +2675,162 @@
         <f aca="false">IF(O$22="","",O$22)</f>
         <v/>
       </c>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="44"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="43"/>
     </row>
     <row r="40" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="90" t="n">
         <v>2</v>
       </c>
       <c r="D40" s="91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="93" t="str">
+        <v>49</v>
+      </c>
+      <c r="F40" s="93" t="inlineStr">
         <f aca="false">IF(F$22="","",F$22)</f>
-        <v/>
-      </c>
-      <c r="G40" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G40" s="93" t="inlineStr">
         <f aca="false">IF(G$22="","",G$22)</f>
-        <v/>
-      </c>
-      <c r="H40" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H40" s="93" t="inlineStr">
         <f aca="false">IF(H$22="","",H$22)</f>
-        <v/>
-      </c>
-      <c r="I40" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I40" s="93" t="inlineStr">
         <f aca="false">IF(I$22="","",I$22)</f>
-        <v/>
-      </c>
-      <c r="J40" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J40" s="93" t="inlineStr">
         <f aca="false">IF(J$22="","",J$22)</f>
-        <v/>
-      </c>
-      <c r="K40" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K40" s="93" t="inlineStr">
         <f aca="false">IF(K$22="","",K$22)</f>
-        <v/>
-      </c>
-      <c r="L40" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L40" s="93" t="inlineStr">
         <f aca="false">IF(L$22="","",L$22)</f>
-        <v/>
-      </c>
-      <c r="M40" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M40" s="93" t="inlineStr">
         <f aca="false">IF(M$22="","",M$22)</f>
-        <v/>
-      </c>
-      <c r="N40" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N40" s="93" t="inlineStr">
         <f aca="false">IF(N$22="","",N$22)</f>
-        <v/>
-      </c>
-      <c r="O40" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O40" s="93" t="inlineStr">
         <f aca="false">IF(O$22="","",O$22)</f>
-        <v/>
-      </c>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="90" t="n">
         <v>3</v>
       </c>
       <c r="D41" s="91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="93" t="str">
+        <v>50</v>
+      </c>
+      <c r="F41" s="93" t="inlineStr">
         <f aca="false">IF(F$22="","",F$22)</f>
-        <v/>
-      </c>
-      <c r="G41" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G41" s="93" t="inlineStr">
         <f aca="false">IF(G$22="","",G$22)</f>
-        <v/>
-      </c>
-      <c r="H41" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H41" s="93" t="inlineStr">
         <f aca="false">IF(H$22="","",H$22)</f>
-        <v/>
-      </c>
-      <c r="I41" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I41" s="93" t="inlineStr">
         <f aca="false">IF(I$22="","",I$22)</f>
-        <v/>
-      </c>
-      <c r="J41" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J41" s="93" t="inlineStr">
         <f aca="false">IF(J$22="","",J$22)</f>
-        <v/>
-      </c>
-      <c r="K41" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K41" s="93" t="inlineStr">
         <f aca="false">IF(K$22="","",K$22)</f>
-        <v/>
-      </c>
-      <c r="L41" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L41" s="93" t="inlineStr">
         <f aca="false">IF(L$22="","",L$22)</f>
-        <v/>
-      </c>
-      <c r="M41" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M41" s="93" t="inlineStr">
         <f aca="false">IF(M$22="","",M$22)</f>
-        <v/>
-      </c>
-      <c r="N41" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N41" s="93" t="inlineStr">
         <f aca="false">IF(N$22="","",N$22)</f>
-        <v/>
-      </c>
-      <c r="O41" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O41" s="93" t="inlineStr">
         <f aca="false">IF(O$22="","",O$22)</f>
-        <v/>
-      </c>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="94"/>
       <c r="D42" s="95"/>
       <c r="E42" s="96"/>
@@ -2874,20 +2844,20 @@
       <c r="M42" s="98"/>
       <c r="N42" s="99"/>
       <c r="O42" s="99"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="4"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="90" t="n">
         <v>11</v>
       </c>
       <c r="D43" s="91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E43" s="92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43" s="93" t="str">
         <f aca="false">IF(F$23="","",F$23)</f>
@@ -2929,122 +2899,162 @@
         <f aca="false">IF(O$23="","",O$23)</f>
         <v/>
       </c>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="4"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="90" t="n">
         <v>12</v>
       </c>
       <c r="D44" s="91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E44" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" s="93" t="str">
+        <v>49</v>
+      </c>
+      <c r="F44" s="93" t="inlineStr">
         <f aca="false">IF(F$23="","",F$23)</f>
-        <v/>
-      </c>
-      <c r="G44" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G44" s="93" t="inlineStr">
         <f aca="false">IF(G$23="","",G$23)</f>
-        <v/>
-      </c>
-      <c r="H44" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H44" s="93" t="inlineStr">
         <f aca="false">IF(H$23="","",H$23)</f>
-        <v/>
-      </c>
-      <c r="I44" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I44" s="93" t="inlineStr">
         <f aca="false">IF(I$23="","",I$23)</f>
-        <v/>
-      </c>
-      <c r="J44" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J44" s="93" t="inlineStr">
         <f aca="false">IF(J$23="","",J$23)</f>
-        <v/>
-      </c>
-      <c r="K44" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K44" s="93" t="inlineStr">
         <f aca="false">IF(K$23="","",K$23)</f>
-        <v/>
-      </c>
-      <c r="L44" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L44" s="93" t="inlineStr">
         <f aca="false">IF(L$23="","",L$23)</f>
-        <v/>
-      </c>
-      <c r="M44" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M44" s="93" t="inlineStr">
         <f aca="false">IF(M$23="","",M$23)</f>
-        <v/>
-      </c>
-      <c r="N44" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N44" s="93" t="inlineStr">
         <f aca="false">IF(N$23="","",N$23)</f>
-        <v/>
-      </c>
-      <c r="O44" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O44" s="93" t="inlineStr">
         <f aca="false">IF(O$23="","",O$23)</f>
-        <v/>
-      </c>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="90" t="n">
         <v>13</v>
       </c>
       <c r="D45" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="93" t="str">
+      <c r="F45" s="93" t="inlineStr">
         <f aca="false">IF(F$23="","",F$23)</f>
-        <v/>
-      </c>
-      <c r="G45" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G45" s="93" t="inlineStr">
         <f aca="false">IF(G$23="","",G$23)</f>
-        <v/>
-      </c>
-      <c r="H45" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H45" s="93" t="inlineStr">
         <f aca="false">IF(H$23="","",H$23)</f>
-        <v/>
-      </c>
-      <c r="I45" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I45" s="93" t="inlineStr">
         <f aca="false">IF(I$23="","",I$23)</f>
-        <v/>
-      </c>
-      <c r="J45" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J45" s="93" t="inlineStr">
         <f aca="false">IF(J$23="","",J$23)</f>
-        <v/>
-      </c>
-      <c r="K45" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K45" s="93" t="inlineStr">
         <f aca="false">IF(K$23="","",K$23)</f>
-        <v/>
-      </c>
-      <c r="L45" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L45" s="93" t="inlineStr">
         <f aca="false">IF(L$23="","",L$23)</f>
-        <v/>
-      </c>
-      <c r="M45" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M45" s="93" t="inlineStr">
         <f aca="false">IF(M$23="","",M$23)</f>
-        <v/>
-      </c>
-      <c r="N45" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N45" s="93" t="inlineStr">
         <f aca="false">IF(N$23="","",N$23)</f>
-        <v/>
-      </c>
-      <c r="O45" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O45" s="93" t="inlineStr">
         <f aca="false">IF(O$23="","",O$23)</f>
-        <v/>
-      </c>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="44"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="43"/>
     </row>
     <row r="46" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="101"/>
       <c r="D46" s="102"/>
       <c r="E46" s="96"/>
@@ -3058,20 +3068,20 @@
       <c r="M46" s="98"/>
       <c r="N46" s="99"/>
       <c r="O46" s="99"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="4"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="103" t="n">
+      <c r="A47" s="1"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="90" t="n">
         <v>21</v>
       </c>
       <c r="D47" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E47" s="92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47" s="89" t="str">
         <f aca="false">IF(F$24="","",F$24)</f>
@@ -3113,782 +3123,1062 @@
         <f aca="false">IF(O$24="","",O$24)</f>
         <v/>
       </c>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="4"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="103" t="n">
+      <c r="A48" s="1"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="90" t="n">
         <v>22</v>
       </c>
       <c r="D48" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E48" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48" s="93" t="str">
+        <v>54</v>
+      </c>
+      <c r="F48" s="93" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
-        <v/>
-      </c>
-      <c r="G48" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G48" s="93" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
-        <v/>
-      </c>
-      <c r="H48" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H48" s="93" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
-        <v/>
-      </c>
-      <c r="I48" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I48" s="93" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
-        <v/>
-      </c>
-      <c r="J48" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J48" s="93" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
-        <v/>
-      </c>
-      <c r="K48" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K48" s="93" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
-        <v/>
-      </c>
-      <c r="L48" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L48" s="93" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M48" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M48" s="93" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
-      </c>
-      <c r="N48" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N48" s="93" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
-        <v/>
-      </c>
-      <c r="O48" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O48" s="93" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
-      </c>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="103" t="n">
+      <c r="A49" s="1"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="90" t="n">
         <v>23</v>
       </c>
       <c r="D49" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E49" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="93" t="str">
+        <v>55</v>
+      </c>
+      <c r="F49" s="93" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
-        <v/>
-      </c>
-      <c r="G49" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G49" s="93" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
-        <v/>
-      </c>
-      <c r="H49" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H49" s="93" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
-        <v/>
-      </c>
-      <c r="I49" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I49" s="93" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
-        <v/>
-      </c>
-      <c r="J49" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J49" s="93" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
-        <v/>
-      </c>
-      <c r="K49" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K49" s="93" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
-        <v/>
-      </c>
-      <c r="L49" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L49" s="93" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M49" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M49" s="93" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
-      </c>
-      <c r="N49" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N49" s="93" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
-        <v/>
-      </c>
-      <c r="O49" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O49" s="93" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
-      </c>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="44"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="43"/>
     </row>
     <row r="50" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="103" t="n">
+      <c r="A50" s="1"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="90" t="n">
         <v>24</v>
       </c>
       <c r="D50" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E50" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="93" t="str">
+        <v>56</v>
+      </c>
+      <c r="F50" s="93" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
-        <v/>
-      </c>
-      <c r="G50" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G50" s="93" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
-        <v/>
-      </c>
-      <c r="H50" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H50" s="93" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
-        <v/>
-      </c>
-      <c r="I50" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I50" s="93" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
-        <v/>
-      </c>
-      <c r="J50" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J50" s="93" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
-        <v/>
-      </c>
-      <c r="K50" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K50" s="93" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
-        <v/>
-      </c>
-      <c r="L50" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L50" s="93" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M50" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M50" s="93" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
-      </c>
-      <c r="N50" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N50" s="93" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
-        <v/>
-      </c>
-      <c r="O50" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O50" s="93" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
-      </c>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="103" t="n">
+      <c r="A51" s="1"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="90" t="n">
         <v>25</v>
       </c>
       <c r="D51" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E51" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="93" t="str">
+        <v>57</v>
+      </c>
+      <c r="F51" s="93" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
-        <v/>
-      </c>
-      <c r="G51" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G51" s="93" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
-        <v/>
-      </c>
-      <c r="H51" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H51" s="93" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
-        <v/>
-      </c>
-      <c r="I51" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I51" s="93" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
-        <v/>
-      </c>
-      <c r="J51" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J51" s="93" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
-        <v/>
-      </c>
-      <c r="K51" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K51" s="93" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
-        <v/>
-      </c>
-      <c r="L51" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L51" s="93" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M51" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M51" s="93" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
-      </c>
-      <c r="N51" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N51" s="93" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
-        <v/>
-      </c>
-      <c r="O51" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O51" s="93" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
-      </c>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="103" t="n">
+      <c r="A52" s="1"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="90" t="n">
         <v>26</v>
       </c>
       <c r="D52" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E52" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="93" t="str">
+        <v>58</v>
+      </c>
+      <c r="F52" s="93" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
-        <v/>
-      </c>
-      <c r="G52" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G52" s="93" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
-        <v/>
-      </c>
-      <c r="H52" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H52" s="93" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
-        <v/>
-      </c>
-      <c r="I52" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I52" s="93" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
-        <v/>
-      </c>
-      <c r="J52" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J52" s="93" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
-        <v/>
-      </c>
-      <c r="K52" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K52" s="93" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
-        <v/>
-      </c>
-      <c r="L52" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L52" s="93" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M52" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M52" s="93" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
-      </c>
-      <c r="N52" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N52" s="93" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
-        <v/>
-      </c>
-      <c r="O52" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O52" s="93" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
-      </c>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="103" t="n">
+      <c r="A53" s="1"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="90" t="n">
         <v>27</v>
       </c>
       <c r="D53" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E53" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="93" t="str">
+        <v>59</v>
+      </c>
+      <c r="F53" s="93" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
-        <v/>
-      </c>
-      <c r="G53" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G53" s="93" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
-        <v/>
-      </c>
-      <c r="H53" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H53" s="93" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
-        <v/>
-      </c>
-      <c r="I53" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I53" s="93" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
-        <v/>
-      </c>
-      <c r="J53" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J53" s="93" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
-        <v/>
-      </c>
-      <c r="K53" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K53" s="93" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
-        <v/>
-      </c>
-      <c r="L53" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L53" s="93" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M53" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M53" s="93" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
-      </c>
-      <c r="N53" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N53" s="93" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
-        <v/>
-      </c>
-      <c r="O53" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O53" s="93" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
-      </c>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="103" t="n">
+      <c r="A54" s="1"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="90" t="n">
         <v>28</v>
       </c>
       <c r="D54" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E54" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="F54" s="93" t="str">
+        <v>60</v>
+      </c>
+      <c r="F54" s="93" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
-        <v/>
-      </c>
-      <c r="G54" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G54" s="93" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
-        <v/>
-      </c>
-      <c r="H54" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H54" s="93" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
-        <v/>
-      </c>
-      <c r="I54" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I54" s="93" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
-        <v/>
-      </c>
-      <c r="J54" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J54" s="93" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
-        <v/>
-      </c>
-      <c r="K54" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K54" s="93" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
-        <v/>
-      </c>
-      <c r="L54" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L54" s="93" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M54" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M54" s="93" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
-      </c>
-      <c r="N54" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N54" s="93" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
-        <v/>
-      </c>
-      <c r="O54" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O54" s="93" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
-      </c>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="44"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="43"/>
     </row>
     <row r="55" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="103" t="n">
+      <c r="A55" s="1"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="90" t="n">
         <v>29</v>
       </c>
       <c r="D55" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E55" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="F55" s="93" t="str">
+        <v>61</v>
+      </c>
+      <c r="F55" s="93" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
-        <v/>
-      </c>
-      <c r="G55" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G55" s="93" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
-        <v/>
-      </c>
-      <c r="H55" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H55" s="93" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
-        <v/>
-      </c>
-      <c r="I55" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I55" s="93" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
-        <v/>
-      </c>
-      <c r="J55" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J55" s="93" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
-        <v/>
-      </c>
-      <c r="K55" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K55" s="93" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
-        <v/>
-      </c>
-      <c r="L55" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L55" s="93" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M55" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M55" s="93" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
-      </c>
-      <c r="N55" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N55" s="93" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
-        <v/>
-      </c>
-      <c r="O55" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O55" s="93" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
-      </c>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="103" t="n">
+      <c r="A56" s="1"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="90" t="n">
         <v>30</v>
       </c>
       <c r="D56" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E56" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" s="93" t="str">
+        <v>62</v>
+      </c>
+      <c r="F56" s="93" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
-        <v/>
-      </c>
-      <c r="G56" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G56" s="93" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
-        <v/>
-      </c>
-      <c r="H56" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H56" s="93" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
-        <v/>
-      </c>
-      <c r="I56" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I56" s="93" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
-        <v/>
-      </c>
-      <c r="J56" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J56" s="93" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
-        <v/>
-      </c>
-      <c r="K56" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K56" s="93" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
-        <v/>
-      </c>
-      <c r="L56" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L56" s="93" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M56" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M56" s="93" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
-      </c>
-      <c r="N56" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N56" s="93" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
-        <v/>
-      </c>
-      <c r="O56" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O56" s="93" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
-      </c>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="103" t="n">
+      <c r="A57" s="1"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="90" t="n">
         <v>31</v>
       </c>
       <c r="D57" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E57" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="F57" s="93" t="str">
+        <v>63</v>
+      </c>
+      <c r="F57" s="93" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
-        <v/>
-      </c>
-      <c r="G57" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G57" s="93" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
-        <v/>
-      </c>
-      <c r="H57" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H57" s="93" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
-        <v/>
-      </c>
-      <c r="I57" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I57" s="93" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
-        <v/>
-      </c>
-      <c r="J57" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J57" s="93" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
-        <v/>
-      </c>
-      <c r="K57" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K57" s="93" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
-        <v/>
-      </c>
-      <c r="L57" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L57" s="93" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M57" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M57" s="93" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
-      </c>
-      <c r="N57" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N57" s="93" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
-        <v/>
-      </c>
-      <c r="O57" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O57" s="93" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
-      </c>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="103" t="n">
+      <c r="A58" s="1"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="90" t="n">
         <v>32</v>
       </c>
       <c r="D58" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E58" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="F58" s="93" t="str">
+        <v>64</v>
+      </c>
+      <c r="F58" s="93" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
-        <v/>
-      </c>
-      <c r="G58" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G58" s="93" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
-        <v/>
-      </c>
-      <c r="H58" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H58" s="93" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
-        <v/>
-      </c>
-      <c r="I58" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I58" s="93" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
-        <v/>
-      </c>
-      <c r="J58" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J58" s="93" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
-        <v/>
-      </c>
-      <c r="K58" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K58" s="93" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
-        <v/>
-      </c>
-      <c r="L58" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L58" s="93" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M58" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M58" s="93" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
-      </c>
-      <c r="N58" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N58" s="93" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
-        <v/>
-      </c>
-      <c r="O58" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O58" s="93" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
-      </c>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="44"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="43"/>
     </row>
     <row r="59" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="103" t="n">
+      <c r="A59" s="1"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="90" t="n">
         <v>33</v>
       </c>
       <c r="D59" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E59" s="92" t="s">
-        <v>64</v>
-      </c>
-      <c r="F59" s="93" t="str">
+        <v>65</v>
+      </c>
+      <c r="F59" s="93" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
-        <v/>
-      </c>
-      <c r="G59" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G59" s="93" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
-        <v/>
-      </c>
-      <c r="H59" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H59" s="93" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
-        <v/>
-      </c>
-      <c r="I59" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I59" s="93" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
-        <v/>
-      </c>
-      <c r="J59" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J59" s="93" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
-        <v/>
-      </c>
-      <c r="K59" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K59" s="93" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
-        <v/>
-      </c>
-      <c r="L59" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L59" s="93" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M59" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M59" s="93" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
-      </c>
-      <c r="N59" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N59" s="93" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
-        <v/>
-      </c>
-      <c r="O59" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O59" s="93" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
-      </c>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="103" t="n">
+      <c r="A60" s="1"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="90" t="n">
         <v>34</v>
       </c>
       <c r="D60" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E60" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="F60" s="93" t="str">
+        <v>66</v>
+      </c>
+      <c r="F60" s="93" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
-        <v/>
-      </c>
-      <c r="G60" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G60" s="93" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
-        <v/>
-      </c>
-      <c r="H60" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H60" s="93" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
-        <v/>
-      </c>
-      <c r="I60" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I60" s="93" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
-        <v/>
-      </c>
-      <c r="J60" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J60" s="93" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
-        <v/>
-      </c>
-      <c r="K60" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K60" s="93" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
-        <v/>
-      </c>
-      <c r="L60" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L60" s="93" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M60" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M60" s="93" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
-      </c>
-      <c r="N60" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N60" s="93" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
-        <v/>
-      </c>
-      <c r="O60" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O60" s="93" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
-      </c>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="103" t="n">
+      <c r="A61" s="1"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="90" t="n">
         <v>35</v>
       </c>
       <c r="D61" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E61" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="93" t="str">
+        <v>67</v>
+      </c>
+      <c r="F61" s="93" t="inlineStr">
         <f aca="false">IF(F$24="","",F$24)</f>
-        <v/>
-      </c>
-      <c r="G61" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G61" s="93" t="inlineStr">
         <f aca="false">IF(G$24="","",G$24)</f>
-        <v/>
-      </c>
-      <c r="H61" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H61" s="93" t="inlineStr">
         <f aca="false">IF(H$24="","",H$24)</f>
-        <v/>
-      </c>
-      <c r="I61" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I61" s="93" t="inlineStr">
         <f aca="false">IF(I$24="","",I$24)</f>
-        <v/>
-      </c>
-      <c r="J61" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J61" s="93" t="inlineStr">
         <f aca="false">IF(J$24="","",J$24)</f>
-        <v/>
-      </c>
-      <c r="K61" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K61" s="93" t="inlineStr">
         <f aca="false">IF(K$24="","",K$24)</f>
-        <v/>
-      </c>
-      <c r="L61" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L61" s="93" t="inlineStr">
         <f aca="false">IF(L$24="","",L$24)</f>
-        <v/>
-      </c>
-      <c r="M61" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M61" s="93" t="inlineStr">
         <f aca="false">IF(M$24="","",M$24)</f>
-        <v/>
-      </c>
-      <c r="N61" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N61" s="93" t="inlineStr">
         <f aca="false">IF(N$24="","",N$24)</f>
-        <v/>
-      </c>
-      <c r="O61" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O61" s="93" t="inlineStr">
         <f aca="false">IF(O$24="","",O$24)</f>
-        <v/>
-      </c>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="101"/>
       <c r="D62" s="102"/>
       <c r="E62" s="96"/>
@@ -3902,20 +4192,20 @@
       <c r="M62" s="98"/>
       <c r="N62" s="99"/>
       <c r="O62" s="99"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="4"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2"/>
-      <c r="B63" s="9"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="90" t="n">
         <v>41</v>
       </c>
       <c r="D63" s="91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E63" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F63" s="93" t="str">
         <f aca="false">IF(F$31="","",F$31)</f>
@@ -3957,290 +4247,370 @@
         <f aca="false">IF(O$31="","",O$31)</f>
         <v/>
       </c>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="4"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2"/>
-      <c r="B64" s="9"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="90" t="n">
         <v>42</v>
       </c>
       <c r="D64" s="91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E64" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="F64" s="93" t="str">
+        <v>70</v>
+      </c>
+      <c r="F64" s="93" t="inlineStr">
         <f aca="false">IF(F$31="","",F$31)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G64" s="93" t="n">
         <f aca="false">IF(G$31="","",G$31)</f>
         <v>100</v>
       </c>
-      <c r="H64" s="93" t="str">
+      <c r="H64" s="93" t="inlineStr">
         <f aca="false">IF(H$31="","",H$31)</f>
-        <v/>
-      </c>
-      <c r="I64" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I64" s="93" t="inlineStr">
         <f aca="false">IF(I$31="","",I$31)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J64" s="93" t="n">
         <f aca="false">IF(J$31="","",J$31)</f>
         <v>0</v>
       </c>
-      <c r="K64" s="93" t="str">
+      <c r="K64" s="93" t="inlineStr">
         <f aca="false">IF(K$31="","",K$31)</f>
-        <v/>
-      </c>
-      <c r="L64" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L64" s="93" t="inlineStr">
         <f aca="false">IF(L$31="","",L$31)</f>
-        <v/>
-      </c>
-      <c r="M64" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M64" s="93" t="inlineStr">
         <f aca="false">IF(M$31="","",M$31)</f>
-        <v/>
-      </c>
-      <c r="N64" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N64" s="93" t="inlineStr">
         <f aca="false">IF(N$31="","",N$31)</f>
-        <v/>
-      </c>
-      <c r="O64" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O64" s="93" t="inlineStr">
         <f aca="false">IF(O$31="","",O$31)</f>
-        <v/>
-      </c>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2"/>
-      <c r="B65" s="9"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="8"/>
       <c r="C65" s="90" t="n">
         <v>43</v>
       </c>
       <c r="D65" s="91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E65" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="F65" s="93" t="str">
+        <v>71</v>
+      </c>
+      <c r="F65" s="93" t="inlineStr">
         <f aca="false">IF(F$31="","",F$31)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G65" s="93" t="n">
         <f aca="false">IF(G$31="","",G$31)</f>
         <v>100</v>
       </c>
-      <c r="H65" s="93" t="str">
+      <c r="H65" s="93" t="inlineStr">
         <f aca="false">IF(H$31="","",H$31)</f>
-        <v/>
-      </c>
-      <c r="I65" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I65" s="93" t="inlineStr">
         <f aca="false">IF(I$31="","",I$31)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J65" s="93" t="n">
         <f aca="false">IF(J$31="","",J$31)</f>
         <v>0</v>
       </c>
-      <c r="K65" s="93" t="str">
+      <c r="K65" s="93" t="inlineStr">
         <f aca="false">IF(K$31="","",K$31)</f>
-        <v/>
-      </c>
-      <c r="L65" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L65" s="93" t="inlineStr">
         <f aca="false">IF(L$31="","",L$31)</f>
-        <v/>
-      </c>
-      <c r="M65" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M65" s="93" t="inlineStr">
         <f aca="false">IF(M$31="","",M$31)</f>
-        <v/>
-      </c>
-      <c r="N65" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N65" s="93" t="inlineStr">
         <f aca="false">IF(N$31="","",N$31)</f>
-        <v/>
-      </c>
-      <c r="O65" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O65" s="93" t="inlineStr">
         <f aca="false">IF(O$31="","",O$31)</f>
-        <v/>
-      </c>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2"/>
-      <c r="B66" s="9"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="8"/>
       <c r="C66" s="90" t="n">
         <v>44</v>
       </c>
       <c r="D66" s="91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E66" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="F66" s="93" t="str">
+        <v>72</v>
+      </c>
+      <c r="F66" s="93" t="inlineStr">
         <f aca="false">IF(F$31="","",F$31)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G66" s="93" t="n">
         <f aca="false">IF(G$31="","",G$31)</f>
         <v>100</v>
       </c>
-      <c r="H66" s="93" t="str">
+      <c r="H66" s="93" t="inlineStr">
         <f aca="false">IF(H$31="","",H$31)</f>
-        <v/>
-      </c>
-      <c r="I66" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I66" s="93" t="inlineStr">
         <f aca="false">IF(I$31="","",I$31)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J66" s="93" t="n">
         <f aca="false">IF(J$31="","",J$31)</f>
         <v>0</v>
       </c>
-      <c r="K66" s="93" t="str">
+      <c r="K66" s="93" t="inlineStr">
         <f aca="false">IF(K$31="","",K$31)</f>
-        <v/>
-      </c>
-      <c r="L66" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L66" s="93" t="inlineStr">
         <f aca="false">IF(L$31="","",L$31)</f>
-        <v/>
-      </c>
-      <c r="M66" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M66" s="93" t="inlineStr">
         <f aca="false">IF(M$31="","",M$31)</f>
-        <v/>
-      </c>
-      <c r="N66" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N66" s="93" t="inlineStr">
         <f aca="false">IF(N$31="","",N$31)</f>
-        <v/>
-      </c>
-      <c r="O66" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O66" s="93" t="inlineStr">
         <f aca="false">IF(O$31="","",O$31)</f>
-        <v/>
-      </c>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="103" t="n">
+      <c r="A67" s="1"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="90" t="n">
         <v>45</v>
       </c>
       <c r="D67" s="91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E67" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="F67" s="93" t="str">
+        <v>72</v>
+      </c>
+      <c r="F67" s="93" t="inlineStr">
         <f aca="false">IF(F$31="","",F$31)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G67" s="93" t="n">
         <f aca="false">IF(G$31="","",G$31)</f>
         <v>100</v>
       </c>
-      <c r="H67" s="93" t="str">
+      <c r="H67" s="93" t="inlineStr">
         <f aca="false">IF(H$31="","",H$31)</f>
-        <v/>
-      </c>
-      <c r="I67" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I67" s="93" t="inlineStr">
         <f aca="false">IF(I$31="","",I$31)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J67" s="93" t="n">
         <f aca="false">IF(J$31="","",J$31)</f>
         <v>0</v>
       </c>
-      <c r="K67" s="93" t="str">
+      <c r="K67" s="93" t="inlineStr">
         <f aca="false">IF(K$31="","",K$31)</f>
-        <v/>
-      </c>
-      <c r="L67" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L67" s="93" t="inlineStr">
         <f aca="false">IF(L$31="","",L$31)</f>
-        <v/>
-      </c>
-      <c r="M67" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M67" s="93" t="inlineStr">
         <f aca="false">IF(M$31="","",M$31)</f>
-        <v/>
-      </c>
-      <c r="N67" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N67" s="93" t="inlineStr">
         <f aca="false">IF(N$31="","",N$31)</f>
-        <v/>
-      </c>
-      <c r="O67" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O67" s="93" t="inlineStr">
         <f aca="false">IF(O$31="","",O$31)</f>
-        <v/>
-      </c>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="103" t="n">
+      <c r="A68" s="1"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="90" t="n">
         <v>46</v>
       </c>
       <c r="D68" s="91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E68" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="F68" s="93" t="str">
+        <v>72</v>
+      </c>
+      <c r="F68" s="93" t="inlineStr">
         <f aca="false">IF(F$31="","",F$31)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G68" s="93" t="n">
         <f aca="false">IF(G$31="","",G$31)</f>
         <v>100</v>
       </c>
-      <c r="H68" s="93" t="str">
+      <c r="H68" s="93" t="inlineStr">
         <f aca="false">IF(H$31="","",H$31)</f>
-        <v/>
-      </c>
-      <c r="I68" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I68" s="93" t="inlineStr">
         <f aca="false">IF(I$31="","",I$31)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J68" s="93" t="n">
         <f aca="false">IF(J$31="","",J$31)</f>
         <v>0</v>
       </c>
-      <c r="K68" s="93" t="str">
+      <c r="K68" s="93" t="inlineStr">
         <f aca="false">IF(K$31="","",K$31)</f>
-        <v/>
-      </c>
-      <c r="L68" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L68" s="93" t="inlineStr">
         <f aca="false">IF(L$31="","",L$31)</f>
-        <v/>
-      </c>
-      <c r="M68" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M68" s="93" t="inlineStr">
         <f aca="false">IF(M$31="","",M$31)</f>
-        <v/>
-      </c>
-      <c r="N68" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N68" s="93" t="inlineStr">
         <f aca="false">IF(N$31="","",N$31)</f>
-        <v/>
-      </c>
-      <c r="O68" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O68" s="93" t="inlineStr">
         <f aca="false">IF(O$31="","",O$31)</f>
-        <v/>
-      </c>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2"/>
-      <c r="B69" s="9"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="8"/>
       <c r="C69" s="101"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="105"/>
+      <c r="D69" s="103"/>
+      <c r="E69" s="104"/>
       <c r="F69" s="98"/>
       <c r="G69" s="98"/>
       <c r="H69" s="99"/>
@@ -4251,20 +4621,20 @@
       <c r="M69" s="98"/>
       <c r="N69" s="99"/>
       <c r="O69" s="99"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="4"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2"/>
-      <c r="B70" s="9"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="90" t="n">
         <v>47</v>
       </c>
       <c r="D70" s="91" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E70" s="92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F70" s="93" t="str">
         <f aca="false">IF(F$32="","",F$32)</f>
@@ -4306,94 +4676,110 @@
         <f aca="false">IF(O$32="","",O$32)</f>
         <v/>
       </c>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="4"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2"/>
-      <c r="B71" s="9"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="8"/>
       <c r="C71" s="90" t="n">
         <v>48</v>
       </c>
       <c r="D71" s="91" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E71" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="F71" s="93" t="str">
+        <v>49</v>
+      </c>
+      <c r="F71" s="93" t="inlineStr">
         <f aca="false">IF(F$32="","",F$32)</f>
-        <v/>
-      </c>
-      <c r="G71" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G71" s="93" t="inlineStr">
         <f aca="false">IF(G$32="","",G$32)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="H71" s="93" t="n">
         <f aca="false">IF(H$32="","",H$32)</f>
         <v>100</v>
       </c>
-      <c r="I71" s="93" t="str">
+      <c r="I71" s="93" t="inlineStr">
         <f aca="false">IF(I$32="","",I$32)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J71" s="93" t="n">
         <f aca="false">IF(J$32="","",J$32)</f>
         <v>0</v>
       </c>
-      <c r="K71" s="93" t="str">
+      <c r="K71" s="93" t="inlineStr">
         <f aca="false">IF(K$32="","",K$32)</f>
-        <v/>
-      </c>
-      <c r="L71" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L71" s="93" t="inlineStr">
         <f aca="false">IF(L$32="","",L$32)</f>
-        <v/>
-      </c>
-      <c r="M71" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M71" s="93" t="inlineStr">
         <f aca="false">IF(M$32="","",M$32)</f>
-        <v/>
-      </c>
-      <c r="N71" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N71" s="93" t="inlineStr">
         <f aca="false">IF(N$32="","",N$32)</f>
-        <v/>
-      </c>
-      <c r="O71" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O71" s="93" t="inlineStr">
         <f aca="false">IF(O$32="","",O$32)</f>
-        <v/>
-      </c>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="106"/>
-      <c r="D72" s="107"/>
-      <c r="E72" s="108"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="106"/>
+      <c r="E72" s="107"/>
       <c r="F72" s="97"/>
-      <c r="G72" s="109"/>
-      <c r="H72" s="108"/>
-      <c r="I72" s="108"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="107"/>
+      <c r="I72" s="107"/>
       <c r="J72" s="97"/>
       <c r="K72" s="97"/>
       <c r="L72" s="97"/>
-      <c r="M72" s="109"/>
-      <c r="N72" s="108"/>
-      <c r="O72" s="108"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="44"/>
+      <c r="M72" s="108"/>
+      <c r="N72" s="107"/>
+      <c r="O72" s="107"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="43"/>
     </row>
     <row r="73" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2"/>
-      <c r="B73" s="9"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="8"/>
       <c r="C73" s="90" t="n">
         <v>51</v>
       </c>
       <c r="D73" s="91" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E73" s="92" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F73" s="93" t="str">
         <f aca="false">IF(F$28="","",F$28)</f>
@@ -4434,193 +4820,241 @@
         <f aca="false">IF(O$28="","",O$28)</f>
         <v/>
       </c>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="4"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2"/>
-      <c r="B74" s="9"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="8"/>
       <c r="C74" s="90" t="n">
         <v>52</v>
       </c>
       <c r="D74" s="91" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E74" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="F74" s="93" t="str">
+        <v>77</v>
+      </c>
+      <c r="F74" s="93" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G74" s="93" t="n">
         <v>75</v>
       </c>
-      <c r="H74" s="93" t="str">
+      <c r="H74" s="93" t="inlineStr">
         <f aca="false">IF(H$28="","",H$28)</f>
-        <v/>
-      </c>
-      <c r="I74" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I74" s="93" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J74" s="93" t="n">
         <f aca="false">IF(J$28="","",J$28)</f>
         <v>0</v>
       </c>
-      <c r="K74" s="93" t="str">
+      <c r="K74" s="93" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
-        <v/>
-      </c>
-      <c r="L74" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L74" s="93" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
-        <v/>
-      </c>
-      <c r="M74" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M74" s="93" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
-        <v/>
-      </c>
-      <c r="N74" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N74" s="93" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
-        <v/>
-      </c>
-      <c r="O74" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O74" s="93" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
-      </c>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2"/>
-      <c r="B75" s="9"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="8"/>
       <c r="C75" s="90" t="n">
         <v>53</v>
       </c>
       <c r="D75" s="91" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E75" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="F75" s="93" t="str">
+        <v>78</v>
+      </c>
+      <c r="F75" s="93" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G75" s="93" t="n">
         <v>75</v>
       </c>
-      <c r="H75" s="93" t="str">
+      <c r="H75" s="93" t="inlineStr">
         <f aca="false">IF(H$28="","",H$28)</f>
-        <v/>
-      </c>
-      <c r="I75" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I75" s="93" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J75" s="93" t="n">
         <f aca="false">IF(J$28="","",J$28)</f>
         <v>0</v>
       </c>
-      <c r="K75" s="93" t="str">
+      <c r="K75" s="93" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
-        <v/>
-      </c>
-      <c r="L75" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L75" s="93" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
-        <v/>
-      </c>
-      <c r="M75" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M75" s="93" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
-        <v/>
-      </c>
-      <c r="N75" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N75" s="93" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
-        <v/>
-      </c>
-      <c r="O75" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O75" s="93" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
-      </c>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2"/>
-      <c r="B76" s="9"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="8"/>
       <c r="C76" s="90" t="n">
         <v>54</v>
       </c>
       <c r="D76" s="91" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E76" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="F76" s="93" t="str">
+      <c r="F76" s="93" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G76" s="93" t="n">
         <v>75</v>
       </c>
-      <c r="H76" s="93" t="str">
+      <c r="H76" s="93" t="inlineStr">
         <f aca="false">IF(H$28="","",H$28)</f>
-        <v/>
-      </c>
-      <c r="I76" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I76" s="93" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J76" s="93" t="n">
         <f aca="false">IF(J$28="","",J$28)</f>
         <v>0</v>
       </c>
-      <c r="K76" s="93" t="str">
+      <c r="K76" s="93" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
-        <v/>
-      </c>
-      <c r="L76" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L76" s="93" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
-        <v/>
-      </c>
-      <c r="M76" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M76" s="93" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
-        <v/>
-      </c>
-      <c r="N76" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N76" s="93" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
-        <v/>
-      </c>
-      <c r="O76" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O76" s="93" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
-      </c>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="44"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="43"/>
     </row>
     <row r="77" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2"/>
-      <c r="B77" s="9"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="101"/>
       <c r="D77" s="102"/>
       <c r="E77" s="96"/>
-      <c r="F77" s="110"/>
-      <c r="G77" s="111"/>
-      <c r="H77" s="112"/>
-      <c r="I77" s="112"/>
-      <c r="J77" s="113"/>
-      <c r="K77" s="112"/>
-      <c r="L77" s="110"/>
-      <c r="M77" s="111"/>
-      <c r="N77" s="112"/>
-      <c r="O77" s="112"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="4"/>
+      <c r="F77" s="109"/>
+      <c r="G77" s="110"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="112"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="109"/>
+      <c r="M77" s="110"/>
+      <c r="N77" s="111"/>
+      <c r="O77" s="111"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2"/>
-      <c r="B78" s="9"/>
+      <c r="A78" s="1"/>
+      <c r="B78" s="8"/>
       <c r="C78" s="90" t="n">
         <v>56</v>
       </c>
@@ -4628,7 +5062,7 @@
         <v>80</v>
       </c>
       <c r="E78" s="92" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F78" s="93" t="str">
         <f aca="false">IF(F$28="","",F$28)</f>
@@ -4669,12 +5103,12 @@
         <f aca="false">IF(O$28="","",O$28)</f>
         <v/>
       </c>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="4"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2"/>
-      <c r="B79" s="9"/>
+      <c r="A79" s="1"/>
+      <c r="B79" s="8"/>
       <c r="C79" s="90" t="n">
         <v>57</v>
       </c>
@@ -4682,53 +5116,69 @@
         <v>81</v>
       </c>
       <c r="E79" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="F79" s="93" t="str">
+        <v>77</v>
+      </c>
+      <c r="F79" s="93" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
-        <v/>
-      </c>
-      <c r="G79" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G79" s="93" t="inlineStr">
         <f aca="false">IF(G$28="","",G$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="H79" s="93" t="n">
         <v>50</v>
       </c>
-      <c r="I79" s="93" t="str">
+      <c r="I79" s="93" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J79" s="93" t="n">
         <f aca="false">IF(J$28="","",J$28)</f>
         <v>0</v>
       </c>
-      <c r="K79" s="93" t="str">
+      <c r="K79" s="93" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
-        <v/>
-      </c>
-      <c r="L79" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L79" s="93" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
-        <v/>
-      </c>
-      <c r="M79" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M79" s="93" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
-        <v/>
-      </c>
-      <c r="N79" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N79" s="93" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
-        <v/>
-      </c>
-      <c r="O79" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O79" s="93" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
-      </c>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="3"/>
     </row>
     <row r="80" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2"/>
-      <c r="B80" s="9"/>
+      <c r="A80" s="1"/>
+      <c r="B80" s="8"/>
       <c r="C80" s="90" t="n">
         <v>58</v>
       </c>
@@ -4736,107 +5186,139 @@
         <v>80</v>
       </c>
       <c r="E80" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="F80" s="93" t="str">
+        <v>78</v>
+      </c>
+      <c r="F80" s="93" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
-        <v/>
-      </c>
-      <c r="G80" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G80" s="93" t="inlineStr">
         <f aca="false">IF(G$28="","",G$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="H80" s="93" t="n">
         <v>50</v>
       </c>
-      <c r="I80" s="93" t="str">
+      <c r="I80" s="93" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J80" s="93" t="n">
         <f aca="false">IF(J$28="","",J$28)</f>
         <v>0</v>
       </c>
-      <c r="K80" s="93" t="str">
+      <c r="K80" s="93" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
-        <v/>
-      </c>
-      <c r="L80" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L80" s="93" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
-        <v/>
-      </c>
-      <c r="M80" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M80" s="93" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
-        <v/>
-      </c>
-      <c r="N80" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N80" s="93" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
-        <v/>
-      </c>
-      <c r="O80" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O80" s="93" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
-      </c>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2"/>
-      <c r="B81" s="9"/>
+      <c r="A81" s="1"/>
+      <c r="B81" s="8"/>
       <c r="C81" s="90" t="n">
         <v>59</v>
       </c>
       <c r="D81" s="91" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E81" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="F81" s="93" t="str">
+      <c r="F81" s="93" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
-        <v/>
-      </c>
-      <c r="G81" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G81" s="93" t="inlineStr">
         <f aca="false">IF(G$28="","",G$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="H81" s="93" t="n">
         <v>50</v>
       </c>
-      <c r="I81" s="93" t="str">
+      <c r="I81" s="93" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J81" s="93" t="n">
         <f aca="false">IF(J$28="","",J$28)</f>
         <v>0</v>
       </c>
-      <c r="K81" s="93" t="str">
+      <c r="K81" s="93" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
-        <v/>
-      </c>
-      <c r="L81" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L81" s="93" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
-        <v/>
-      </c>
-      <c r="M81" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M81" s="93" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
-        <v/>
-      </c>
-      <c r="N81" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N81" s="93" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
-        <v/>
-      </c>
-      <c r="O81" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O81" s="93" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
-      </c>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2"/>
-      <c r="B82" s="9"/>
+      <c r="A82" s="1"/>
+      <c r="B82" s="8"/>
       <c r="C82" s="94"/>
       <c r="D82" s="95"/>
       <c r="E82" s="96"/>
@@ -4850,20 +5332,20 @@
       <c r="M82" s="98"/>
       <c r="N82" s="99"/>
       <c r="O82" s="99"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="4"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2"/>
-      <c r="B83" s="9"/>
+      <c r="A83" s="1"/>
+      <c r="B83" s="8"/>
       <c r="C83" s="90" t="n">
         <v>61</v>
       </c>
       <c r="D83" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" s="92" t="s">
         <v>83</v>
-      </c>
-      <c r="E83" s="92" t="s">
-        <v>84</v>
       </c>
       <c r="F83" s="93" t="str">
         <f aca="false">IF(F$28="","",F$28)</f>
@@ -4904,201 +5386,249 @@
         <f aca="false">IF(O$28="","",O$28)</f>
         <v/>
       </c>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="4"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2"/>
-      <c r="B84" s="9"/>
+      <c r="A84" s="1"/>
+      <c r="B84" s="8"/>
       <c r="C84" s="90" t="n">
         <v>62</v>
       </c>
       <c r="D84" s="91" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E84" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="F84" s="93" t="str">
+        <v>84</v>
+      </c>
+      <c r="F84" s="93" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G84" s="93" t="n">
         <v>75</v>
       </c>
-      <c r="H84" s="93" t="str">
+      <c r="H84" s="93" t="inlineStr">
         <f aca="false">IF(H$28="","",H$28)</f>
-        <v/>
-      </c>
-      <c r="I84" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I84" s="93" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J84" s="93" t="n">
         <f aca="false">IF(J$28="","",J$28)</f>
         <v>0</v>
       </c>
-      <c r="K84" s="93" t="str">
+      <c r="K84" s="93" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
-        <v/>
-      </c>
-      <c r="L84" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L84" s="93" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
-        <v/>
-      </c>
-      <c r="M84" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M84" s="93" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
-        <v/>
-      </c>
-      <c r="N84" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N84" s="93" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
-        <v/>
-      </c>
-      <c r="O84" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O84" s="93" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
-      </c>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2"/>
-      <c r="B85" s="9"/>
+      <c r="A85" s="1"/>
+      <c r="B85" s="8"/>
       <c r="C85" s="90" t="n">
         <v>63</v>
       </c>
       <c r="D85" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="E85" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="F85" s="93" t="str">
+      <c r="F85" s="93" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G85" s="93" t="n">
         <v>75</v>
       </c>
-      <c r="H85" s="93" t="str">
+      <c r="H85" s="93" t="inlineStr">
         <f aca="false">IF(H$28="","",H$28)</f>
-        <v/>
-      </c>
-      <c r="I85" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I85" s="93" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J85" s="93" t="n">
         <f aca="false">IF(J$28="","",J$28)</f>
         <v>0</v>
       </c>
-      <c r="K85" s="93" t="str">
+      <c r="K85" s="93" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
-        <v/>
-      </c>
-      <c r="L85" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L85" s="93" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
-        <v/>
-      </c>
-      <c r="M85" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M85" s="93" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
-        <v/>
-      </c>
-      <c r="N85" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N85" s="93" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
-        <v/>
-      </c>
-      <c r="O85" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O85" s="93" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
-      </c>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2"/>
-      <c r="B86" s="9"/>
+      <c r="A86" s="1"/>
+      <c r="B86" s="8"/>
       <c r="C86" s="90" t="n">
         <v>64</v>
       </c>
       <c r="D86" s="91" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E86" s="92" t="s">
-        <v>89</v>
-      </c>
-      <c r="F86" s="93" t="str">
+        <v>86</v>
+      </c>
+      <c r="F86" s="93" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G86" s="93" t="n">
         <v>75</v>
       </c>
-      <c r="H86" s="93" t="str">
+      <c r="H86" s="93" t="inlineStr">
         <f aca="false">IF(H$28="","",H$28)</f>
-        <v/>
-      </c>
-      <c r="I86" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I86" s="93" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J86" s="93" t="n">
         <f aca="false">IF(J$28="","",J$28)</f>
         <v>0</v>
       </c>
-      <c r="K86" s="93" t="str">
+      <c r="K86" s="93" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
-        <v/>
-      </c>
-      <c r="L86" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L86" s="93" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
-        <v/>
-      </c>
-      <c r="M86" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M86" s="93" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
-        <v/>
-      </c>
-      <c r="N86" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N86" s="93" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
-        <v/>
-      </c>
-      <c r="O86" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O86" s="93" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
-      </c>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="44"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="43"/>
     </row>
     <row r="87" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2"/>
-      <c r="B87" s="9"/>
+      <c r="A87" s="1"/>
+      <c r="B87" s="8"/>
       <c r="C87" s="101"/>
       <c r="D87" s="102"/>
       <c r="E87" s="96"/>
-      <c r="F87" s="110"/>
-      <c r="G87" s="111"/>
-      <c r="H87" s="112"/>
-      <c r="I87" s="112"/>
-      <c r="J87" s="113"/>
-      <c r="K87" s="112"/>
-      <c r="L87" s="110"/>
-      <c r="M87" s="111"/>
-      <c r="N87" s="112"/>
-      <c r="O87" s="112"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="4"/>
+      <c r="F87" s="109"/>
+      <c r="G87" s="110"/>
+      <c r="H87" s="111"/>
+      <c r="I87" s="111"/>
+      <c r="J87" s="112"/>
+      <c r="K87" s="111"/>
+      <c r="L87" s="109"/>
+      <c r="M87" s="110"/>
+      <c r="N87" s="111"/>
+      <c r="O87" s="111"/>
+      <c r="P87" s="14"/>
+      <c r="Q87" s="3"/>
     </row>
     <row r="88" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2"/>
-      <c r="B88" s="9"/>
+      <c r="A88" s="1"/>
+      <c r="B88" s="8"/>
       <c r="C88" s="90" t="n">
         <v>66</v>
       </c>
       <c r="D88" s="91" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E88" s="92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F88" s="93" t="str">
         <f aca="false">IF(F$28="","",F$28)</f>
@@ -5139,198 +5669,246 @@
         <f aca="false">IF(O$28="","",O$28)</f>
         <v/>
       </c>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="4"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2"/>
-      <c r="B89" s="9"/>
+      <c r="A89" s="1"/>
+      <c r="B89" s="8"/>
       <c r="C89" s="90" t="n">
         <v>67</v>
       </c>
       <c r="D89" s="91" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E89" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="F89" s="93" t="str">
+        <v>84</v>
+      </c>
+      <c r="F89" s="93" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
-        <v/>
-      </c>
-      <c r="G89" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G89" s="93" t="inlineStr">
         <f aca="false">IF(G$28="","",G$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="H89" s="93" t="n">
         <v>50</v>
       </c>
-      <c r="I89" s="93" t="str">
+      <c r="I89" s="93" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J89" s="93" t="n">
         <f aca="false">IF(J$28="","",J$28)</f>
         <v>0</v>
       </c>
-      <c r="K89" s="93" t="str">
+      <c r="K89" s="93" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
-        <v/>
-      </c>
-      <c r="L89" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L89" s="93" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
-        <v/>
-      </c>
-      <c r="M89" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M89" s="93" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
-        <v/>
-      </c>
-      <c r="N89" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N89" s="93" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
-        <v/>
-      </c>
-      <c r="O89" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O89" s="93" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
-      </c>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P89" s="14"/>
+      <c r="Q89" s="3"/>
     </row>
     <row r="90" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2"/>
-      <c r="B90" s="9"/>
+      <c r="A90" s="1"/>
+      <c r="B90" s="8"/>
       <c r="C90" s="90" t="n">
         <v>68</v>
       </c>
       <c r="D90" s="91" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E90" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="F90" s="93" t="str">
+        <v>85</v>
+      </c>
+      <c r="F90" s="93" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
-        <v/>
-      </c>
-      <c r="G90" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G90" s="93" t="inlineStr">
         <f aca="false">IF(G$28="","",G$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="H90" s="93" t="n">
         <v>50</v>
       </c>
-      <c r="I90" s="93" t="str">
+      <c r="I90" s="93" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J90" s="93" t="n">
         <f aca="false">IF(J$28="","",J$28)</f>
         <v>0</v>
       </c>
-      <c r="K90" s="93" t="str">
+      <c r="K90" s="93" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
-        <v/>
-      </c>
-      <c r="L90" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L90" s="93" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
-        <v/>
-      </c>
-      <c r="M90" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M90" s="93" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
-        <v/>
-      </c>
-      <c r="N90" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N90" s="93" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
-        <v/>
-      </c>
-      <c r="O90" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O90" s="93" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
-      </c>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P90" s="14"/>
+      <c r="Q90" s="3"/>
     </row>
     <row r="91" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2"/>
-      <c r="B91" s="9"/>
+      <c r="A91" s="1"/>
+      <c r="B91" s="8"/>
       <c r="C91" s="90" t="n">
         <v>69</v>
       </c>
       <c r="D91" s="91" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E91" s="92" t="s">
-        <v>89</v>
-      </c>
-      <c r="F91" s="93" t="str">
+        <v>86</v>
+      </c>
+      <c r="F91" s="93" t="inlineStr">
         <f aca="false">IF(F$28="","",F$28)</f>
-        <v/>
-      </c>
-      <c r="G91" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G91" s="93" t="inlineStr">
         <f aca="false">IF(G$28="","",G$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="H91" s="93" t="n">
         <v>50</v>
       </c>
-      <c r="I91" s="93" t="str">
+      <c r="I91" s="93" t="inlineStr">
         <f aca="false">IF(I$28="","",I$28)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J91" s="93" t="n">
         <f aca="false">IF(J$28="","",J$28)</f>
         <v>0</v>
       </c>
-      <c r="K91" s="93" t="str">
+      <c r="K91" s="93" t="inlineStr">
         <f aca="false">IF(K$28="","",K$28)</f>
-        <v/>
-      </c>
-      <c r="L91" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L91" s="93" t="inlineStr">
         <f aca="false">IF(L$28="","",L$28)</f>
-        <v/>
-      </c>
-      <c r="M91" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M91" s="93" t="inlineStr">
         <f aca="false">IF(M$28="","",M$28)</f>
-        <v/>
-      </c>
-      <c r="N91" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N91" s="93" t="inlineStr">
         <f aca="false">IF(N$28="","",N$28)</f>
-        <v/>
-      </c>
-      <c r="O91" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O91" s="93" t="inlineStr">
         <f aca="false">IF(O$28="","",O$28)</f>
-        <v/>
-      </c>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P91" s="14"/>
+      <c r="Q91" s="3"/>
     </row>
     <row r="92" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="106"/>
-      <c r="D92" s="107"/>
-      <c r="E92" s="114"/>
-      <c r="F92" s="115"/>
-      <c r="G92" s="116"/>
-      <c r="H92" s="114"/>
-      <c r="I92" s="114"/>
-      <c r="J92" s="115"/>
-      <c r="K92" s="115"/>
-      <c r="L92" s="115"/>
-      <c r="M92" s="116"/>
-      <c r="N92" s="114"/>
-      <c r="O92" s="114"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="44"/>
+      <c r="A92" s="1"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="105"/>
+      <c r="D92" s="106"/>
+      <c r="E92" s="113"/>
+      <c r="F92" s="114"/>
+      <c r="G92" s="115"/>
+      <c r="H92" s="113"/>
+      <c r="I92" s="113"/>
+      <c r="J92" s="114"/>
+      <c r="K92" s="114"/>
+      <c r="L92" s="114"/>
+      <c r="M92" s="115"/>
+      <c r="N92" s="113"/>
+      <c r="O92" s="113"/>
+      <c r="P92" s="14"/>
+      <c r="Q92" s="43"/>
     </row>
     <row r="93" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="117" t="n">
+      <c r="A93" s="1"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="116" t="n">
         <v>71</v>
       </c>
       <c r="D93" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E93" s="92" t="s">
         <v>79</v>
@@ -5375,67 +5953,83 @@
         <f aca="false">IF(O$33="","",O$33)</f>
         <v/>
       </c>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="4"/>
+      <c r="P93" s="14"/>
+      <c r="Q93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="117" t="n">
+      <c r="A94" s="1"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="116" t="n">
         <v>72</v>
       </c>
       <c r="D94" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E94" s="92" t="s">
-        <v>89</v>
-      </c>
-      <c r="F94" s="93" t="str">
+        <v>86</v>
+      </c>
+      <c r="F94" s="93" t="inlineStr">
         <f aca="false">IF(F$33="","",F$33)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G94" s="93" t="n">
         <f aca="false">IF(G$33="","",G$33)</f>
         <v>50</v>
       </c>
-      <c r="H94" s="93" t="str">
+      <c r="H94" s="93" t="inlineStr">
         <f aca="false">IF(H$33="","",H$33)</f>
-        <v/>
-      </c>
-      <c r="I94" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I94" s="93" t="inlineStr">
         <f aca="false">IF(I$33="","",I$33)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J94" s="93" t="n">
         <f aca="false">IF(J$33="","",J$33)</f>
         <v>0</v>
       </c>
-      <c r="K94" s="93" t="str">
+      <c r="K94" s="93" t="inlineStr">
         <f aca="false">IF(K$33="","",K$33)</f>
-        <v/>
-      </c>
-      <c r="L94" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L94" s="93" t="inlineStr">
         <f aca="false">IF(L$33="","",L$33)</f>
-        <v/>
-      </c>
-      <c r="M94" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M94" s="93" t="inlineStr">
         <f aca="false">IF(M$33="","",M$33)</f>
-        <v/>
-      </c>
-      <c r="N94" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N94" s="93" t="inlineStr">
         <f aca="false">IF(N$33="","",N$33)</f>
-        <v/>
-      </c>
-      <c r="O94" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O94" s="93" t="inlineStr">
         <f aca="false">IF(O$33="","",O$33)</f>
-        <v/>
-      </c>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P94" s="14"/>
+      <c r="Q94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2"/>
-      <c r="B95" s="9"/>
+      <c r="A95" s="1"/>
+      <c r="B95" s="8"/>
       <c r="C95" s="94"/>
       <c r="D95" s="95"/>
       <c r="E95" s="96"/>
@@ -5449,20 +6043,20 @@
       <c r="M95" s="99"/>
       <c r="N95" s="99"/>
       <c r="O95" s="99"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="4"/>
+      <c r="P95" s="14"/>
+      <c r="Q95" s="3"/>
     </row>
     <row r="96" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2"/>
-      <c r="B96" s="9"/>
+      <c r="A96" s="1"/>
+      <c r="B96" s="8"/>
       <c r="C96" s="90" t="n">
         <v>81</v>
       </c>
       <c r="D96" s="91" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E96" s="92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F96" s="93" t="str">
         <f aca="false">IF(F$29="","",F$29)</f>
@@ -5504,122 +6098,154 @@
         <f aca="false">IF(O$29="","",O$29)</f>
         <v/>
       </c>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="44"/>
+      <c r="P96" s="14"/>
+      <c r="Q96" s="43"/>
     </row>
     <row r="97" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2"/>
-      <c r="B97" s="9"/>
+      <c r="A97" s="1"/>
+      <c r="B97" s="8"/>
       <c r="C97" s="90" t="n">
         <v>82</v>
       </c>
       <c r="D97" s="91" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E97" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="F97" s="93" t="str">
+        <v>49</v>
+      </c>
+      <c r="F97" s="93" t="inlineStr">
         <f aca="false">IF(F$29="","",F$29)</f>
-        <v/>
-      </c>
-      <c r="G97" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G97" s="93" t="inlineStr">
         <f aca="false">IF(G$29="","",G$29)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="H97" s="93" t="n">
         <f aca="false">IF(H$29="","",H$29)</f>
         <v>50</v>
       </c>
-      <c r="I97" s="93" t="str">
+      <c r="I97" s="93" t="inlineStr">
         <f aca="false">IF(I$29="","",I$29)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J97" s="93" t="n">
         <f aca="false">IF(J$29="","",J$29)</f>
         <v>0</v>
       </c>
-      <c r="K97" s="93" t="str">
+      <c r="K97" s="93" t="inlineStr">
         <f aca="false">IF(K$29="","",K$29)</f>
-        <v/>
-      </c>
-      <c r="L97" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L97" s="93" t="inlineStr">
         <f aca="false">IF(L$29="","",L$29)</f>
-        <v/>
-      </c>
-      <c r="M97" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M97" s="93" t="inlineStr">
         <f aca="false">IF(M$29="","",M$29)</f>
-        <v/>
-      </c>
-      <c r="N97" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N97" s="93" t="inlineStr">
         <f aca="false">IF(N$29="","",N$29)</f>
-        <v/>
-      </c>
-      <c r="O97" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O97" s="93" t="inlineStr">
         <f aca="false">IF(O$29="","",O$29)</f>
-        <v/>
-      </c>
-      <c r="P97" s="15"/>
-      <c r="Q97" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="3"/>
     </row>
     <row r="98" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2"/>
-      <c r="B98" s="9"/>
+      <c r="A98" s="1"/>
+      <c r="B98" s="8"/>
       <c r="C98" s="90" t="n">
         <v>83</v>
       </c>
       <c r="D98" s="91" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E98" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="F98" s="93" t="str">
+        <v>89</v>
+      </c>
+      <c r="F98" s="93" t="inlineStr">
         <f aca="false">IF(F$29="","",F$29)</f>
-        <v/>
-      </c>
-      <c r="G98" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G98" s="93" t="inlineStr">
         <f aca="false">IF(G$29="","",G$29)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="H98" s="93" t="n">
         <f aca="false">IF(H$29="","",H$29)</f>
         <v>50</v>
       </c>
-      <c r="I98" s="93" t="str">
+      <c r="I98" s="93" t="inlineStr">
         <f aca="false">IF(I$29="","",I$29)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J98" s="93" t="n">
         <f aca="false">IF(J$29="","",J$29)</f>
         <v>0</v>
       </c>
-      <c r="K98" s="93" t="str">
+      <c r="K98" s="93" t="inlineStr">
         <f aca="false">IF(K$29="","",K$29)</f>
-        <v/>
-      </c>
-      <c r="L98" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L98" s="93" t="inlineStr">
         <f aca="false">IF(L$29="","",L$29)</f>
-        <v/>
-      </c>
-      <c r="M98" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M98" s="93" t="inlineStr">
         <f aca="false">IF(M$29="","",M$29)</f>
-        <v/>
-      </c>
-      <c r="N98" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N98" s="93" t="inlineStr">
         <f aca="false">IF(N$29="","",N$29)</f>
-        <v/>
-      </c>
-      <c r="O98" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O98" s="93" t="inlineStr">
         <f aca="false">IF(O$29="","",O$29)</f>
-        <v/>
-      </c>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P98" s="14"/>
+      <c r="Q98" s="3"/>
     </row>
     <row r="99" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2"/>
-      <c r="B99" s="9"/>
+      <c r="A99" s="1"/>
+      <c r="B99" s="8"/>
       <c r="C99" s="94"/>
       <c r="D99" s="95"/>
       <c r="E99" s="96"/>
@@ -5633,20 +6259,20 @@
       <c r="M99" s="98"/>
       <c r="N99" s="99"/>
       <c r="O99" s="99"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="4"/>
+      <c r="P99" s="14"/>
+      <c r="Q99" s="3"/>
     </row>
     <row r="100" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="103" t="n">
+      <c r="A100" s="1"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="90" t="n">
         <v>85</v>
       </c>
       <c r="D100" s="91" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E100" s="92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F100" s="93" t="n">
         <f aca="false">IF(F$27="","",F$27)</f>
@@ -5688,32 +6314,36 @@
         <f aca="false">IF(O$27="","",O$27)</f>
         <v/>
       </c>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="4"/>
+      <c r="P100" s="14"/>
+      <c r="Q100" s="3"/>
     </row>
     <row r="101" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="103" t="n">
+      <c r="A101" s="1"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="90" t="n">
         <v>86</v>
       </c>
       <c r="D101" s="91" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E101" s="92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F101" s="93" t="n">
         <f aca="false">IF(F$27="","",F$27)</f>
         <v>25</v>
       </c>
-      <c r="G101" s="93" t="str">
+      <c r="G101" s="93" t="inlineStr">
         <f aca="false">IF(G$27="","",G$27)</f>
-        <v/>
-      </c>
-      <c r="H101" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H101" s="93" t="inlineStr">
         <f aca="false">IF(H$27="","",H$27)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I101" s="93" t="n">
         <f aca="false">IF(I$27="","",I$27)</f>
@@ -5723,52 +6353,66 @@
         <f aca="false">IF(J$27="","",J$27)</f>
         <v>0</v>
       </c>
-      <c r="K101" s="93" t="str">
+      <c r="K101" s="93" t="inlineStr">
         <f aca="false">IF(K$27="","",K$27)</f>
-        <v/>
-      </c>
-      <c r="L101" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L101" s="93" t="inlineStr">
         <f aca="false">IF(L$27="","",L$27)</f>
-        <v/>
-      </c>
-      <c r="M101" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M101" s="93" t="inlineStr">
         <f aca="false">IF(M$27="","",M$27)</f>
-        <v/>
-      </c>
-      <c r="N101" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N101" s="93" t="inlineStr">
         <f aca="false">IF(N$27="","",N$27)</f>
-        <v/>
-      </c>
-      <c r="O101" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O101" s="93" t="inlineStr">
         <f aca="false">IF(O$27="","",O$27)</f>
-        <v/>
-      </c>
-      <c r="P101" s="15"/>
-      <c r="Q101" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="3"/>
     </row>
     <row r="102" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="103" t="n">
+      <c r="A102" s="1"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="90" t="n">
         <v>87</v>
       </c>
       <c r="D102" s="91" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E102" s="92" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F102" s="93" t="n">
         <f aca="false">IF(F$27="","",F$27)</f>
         <v>25</v>
       </c>
-      <c r="G102" s="93" t="str">
+      <c r="G102" s="93" t="inlineStr">
         <f aca="false">IF(G$27="","",G$27)</f>
-        <v/>
-      </c>
-      <c r="H102" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H102" s="93" t="inlineStr">
         <f aca="false">IF(H$27="","",H$27)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I102" s="93" t="n">
         <f aca="false">IF(I$27="","",I$27)</f>
@@ -5778,32 +6422,42 @@
         <f aca="false">IF(J$27="","",J$27)</f>
         <v>0</v>
       </c>
-      <c r="K102" s="93" t="str">
+      <c r="K102" s="93" t="inlineStr">
         <f aca="false">IF(K$27="","",K$27)</f>
-        <v/>
-      </c>
-      <c r="L102" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L102" s="93" t="inlineStr">
         <f aca="false">IF(L$27="","",L$27)</f>
-        <v/>
-      </c>
-      <c r="M102" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M102" s="93" t="inlineStr">
         <f aca="false">IF(M$27="","",M$27)</f>
-        <v/>
-      </c>
-      <c r="N102" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N102" s="93" t="inlineStr">
         <f aca="false">IF(N$27="","",N$27)</f>
-        <v/>
-      </c>
-      <c r="O102" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O102" s="93" t="inlineStr">
         <f aca="false">IF(O$27="","",O$27)</f>
-        <v/>
-      </c>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P102" s="14"/>
+      <c r="Q102" s="3"/>
     </row>
     <row r="103" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2"/>
-      <c r="B103" s="9"/>
+      <c r="A103" s="1"/>
+      <c r="B103" s="8"/>
       <c r="C103" s="94"/>
       <c r="D103" s="95"/>
       <c r="E103" s="96"/>
@@ -5817,20 +6471,20 @@
       <c r="M103" s="98"/>
       <c r="N103" s="99"/>
       <c r="O103" s="99"/>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="4"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="3"/>
     </row>
     <row r="104" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2"/>
-      <c r="B104" s="9"/>
+      <c r="A104" s="1"/>
+      <c r="B104" s="8"/>
       <c r="C104" s="90" t="n">
         <v>91</v>
       </c>
       <c r="D104" s="91" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E104" s="92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F104" s="93" t="str">
         <f aca="false">IF(F$30="","",F$30)</f>
@@ -5872,122 +6526,154 @@
         <f aca="false">IF(O$30="","",O$30)</f>
         <v/>
       </c>
-      <c r="P104" s="15"/>
-      <c r="Q104" s="4"/>
+      <c r="P104" s="14"/>
+      <c r="Q104" s="3"/>
     </row>
     <row r="105" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2"/>
-      <c r="B105" s="9"/>
+      <c r="A105" s="1"/>
+      <c r="B105" s="8"/>
       <c r="C105" s="90" t="n">
         <v>92</v>
       </c>
       <c r="D105" s="91" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E105" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="F105" s="93" t="str">
+        <v>49</v>
+      </c>
+      <c r="F105" s="93" t="inlineStr">
         <f aca="false">IF(F$30="","",F$30)</f>
-        <v/>
-      </c>
-      <c r="G105" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G105" s="93" t="inlineStr">
         <f aca="false">IF(G$30="","",G$30)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="H105" s="93" t="n">
         <f aca="false">IF(H$30="","",H$30)</f>
         <v>50</v>
       </c>
-      <c r="I105" s="93" t="str">
+      <c r="I105" s="93" t="inlineStr">
         <f aca="false">IF(I$30="","",I$30)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J105" s="93" t="n">
         <f aca="false">IF(J$30="","",J$30)</f>
         <v>0</v>
       </c>
-      <c r="K105" s="93" t="str">
+      <c r="K105" s="93" t="inlineStr">
         <f aca="false">IF(K$30="","",K$30)</f>
-        <v/>
-      </c>
-      <c r="L105" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L105" s="93" t="inlineStr">
         <f aca="false">IF(L$30="","",L$30)</f>
-        <v/>
-      </c>
-      <c r="M105" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M105" s="93" t="inlineStr">
         <f aca="false">IF(M$30="","",M$30)</f>
-        <v/>
-      </c>
-      <c r="N105" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N105" s="93" t="inlineStr">
         <f aca="false">IF(N$30="","",N$30)</f>
-        <v/>
-      </c>
-      <c r="O105" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O105" s="93" t="inlineStr">
         <f aca="false">IF(O$30="","",O$30)</f>
-        <v/>
-      </c>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="4"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="3"/>
     </row>
     <row r="106" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2"/>
-      <c r="B106" s="9"/>
+      <c r="A106" s="1"/>
+      <c r="B106" s="8"/>
       <c r="C106" s="90" t="n">
         <v>93</v>
       </c>
       <c r="D106" s="91" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E106" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="F106" s="93" t="str">
+        <v>89</v>
+      </c>
+      <c r="F106" s="93" t="inlineStr">
         <f aca="false">IF(F$30="","",F$30)</f>
-        <v/>
-      </c>
-      <c r="G106" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G106" s="93" t="inlineStr">
         <f aca="false">IF(G$30="","",G$30)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="H106" s="93" t="n">
         <f aca="false">IF(H$30="","",H$30)</f>
         <v>50</v>
       </c>
-      <c r="I106" s="93" t="str">
+      <c r="I106" s="93" t="inlineStr">
         <f aca="false">IF(I$30="","",I$30)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="J106" s="93" t="n">
         <f aca="false">IF(J$30="","",J$30)</f>
         <v>0</v>
       </c>
-      <c r="K106" s="93" t="str">
+      <c r="K106" s="93" t="inlineStr">
         <f aca="false">IF(K$30="","",K$30)</f>
-        <v/>
-      </c>
-      <c r="L106" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L106" s="93" t="inlineStr">
         <f aca="false">IF(L$30="","",L$30)</f>
-        <v/>
-      </c>
-      <c r="M106" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M106" s="93" t="inlineStr">
         <f aca="false">IF(M$30="","",M$30)</f>
-        <v/>
-      </c>
-      <c r="N106" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N106" s="93" t="inlineStr">
         <f aca="false">IF(N$30="","",N$30)</f>
-        <v/>
-      </c>
-      <c r="O106" s="93" t="str">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O106" s="93" t="inlineStr">
         <f aca="false">IF(O$30="","",O$30)</f>
-        <v/>
-      </c>
-      <c r="P106" s="15"/>
-      <c r="Q106" s="44"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P106" s="14"/>
+      <c r="Q106" s="43"/>
     </row>
     <row r="107" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2"/>
-      <c r="B107" s="9"/>
+      <c r="A107" s="1"/>
+      <c r="B107" s="8"/>
       <c r="C107" s="101"/>
       <c r="D107" s="102"/>
       <c r="E107" s="96"/>
@@ -6001,20 +6687,20 @@
       <c r="M107" s="99"/>
       <c r="N107" s="99"/>
       <c r="O107" s="99"/>
-      <c r="P107" s="15"/>
-      <c r="Q107" s="44"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="43"/>
     </row>
     <row r="108" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="103" t="n">
+      <c r="A108" s="1"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="90" t="n">
         <v>101</v>
       </c>
       <c r="D108" s="91" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E108" s="92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F108" s="93" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
@@ -6055,20 +6741,20 @@
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="4"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="3"/>
     </row>
     <row r="109" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="118" t="s">
-        <v>30</v>
+      <c r="A109" s="1"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="117" t="s">
+        <v>31</v>
       </c>
       <c r="D109" s="91" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E109" s="92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F109" s="93" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
@@ -6110,20 +6796,20 @@
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="4"/>
+      <c r="P109" s="14"/>
+      <c r="Q109" s="3"/>
     </row>
     <row r="110" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="103" t="n">
+      <c r="A110" s="1"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="90" t="n">
         <v>111</v>
       </c>
       <c r="D110" s="91" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E110" s="92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F110" s="93" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
@@ -6164,20 +6850,20 @@
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
-      <c r="P110" s="15"/>
-      <c r="Q110" s="4"/>
+      <c r="P110" s="14"/>
+      <c r="Q110" s="3"/>
     </row>
     <row r="111" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="118" t="s">
-        <v>30</v>
+      <c r="A111" s="1"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="117" t="s">
+        <v>31</v>
       </c>
       <c r="D111" s="91" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E111" s="92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F111" s="93" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
@@ -6219,20 +6905,20 @@
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
-      <c r="P111" s="15"/>
-      <c r="Q111" s="4"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="3"/>
     </row>
     <row r="112" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="103" t="n">
+      <c r="A112" s="1"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="90" t="n">
         <v>121</v>
       </c>
       <c r="D112" s="91" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E112" s="92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F112" s="93" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
@@ -6273,20 +6959,20 @@
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
-      <c r="P112" s="15"/>
-      <c r="Q112" s="4"/>
+      <c r="P112" s="14"/>
+      <c r="Q112" s="3"/>
     </row>
     <row r="113" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="118" t="s">
-        <v>30</v>
+      <c r="A113" s="1"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="117" t="s">
+        <v>31</v>
       </c>
       <c r="D113" s="91" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E113" s="92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F113" s="93" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
@@ -6328,20 +7014,20 @@
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
-      <c r="P113" s="15"/>
-      <c r="Q113" s="4"/>
+      <c r="P113" s="14"/>
+      <c r="Q113" s="3"/>
     </row>
     <row r="114" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="103" t="n">
+      <c r="A114" s="1"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="90" t="n">
         <v>131</v>
       </c>
       <c r="D114" s="91" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E114" s="92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F114" s="93" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
@@ -6382,20 +7068,20 @@
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
-      <c r="P114" s="15"/>
-      <c r="Q114" s="4"/>
+      <c r="P114" s="14"/>
+      <c r="Q114" s="3"/>
     </row>
     <row r="115" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="118" t="s">
-        <v>30</v>
+      <c r="A115" s="1"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="117" t="s">
+        <v>31</v>
       </c>
       <c r="D115" s="91" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E115" s="92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F115" s="93" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
@@ -6437,20 +7123,20 @@
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
-      <c r="P115" s="15"/>
-      <c r="Q115" s="4"/>
+      <c r="P115" s="14"/>
+      <c r="Q115" s="3"/>
     </row>
     <row r="116" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="103" t="n">
+      <c r="A116" s="1"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="90" t="n">
         <v>141</v>
       </c>
       <c r="D116" s="91" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E116" s="92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F116" s="93" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
@@ -6491,20 +7177,20 @@
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
-      <c r="P116" s="15"/>
-      <c r="Q116" s="44"/>
+      <c r="P116" s="14"/>
+      <c r="Q116" s="43"/>
     </row>
     <row r="117" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="118" t="s">
-        <v>30</v>
+      <c r="A117" s="1"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="117" t="s">
+        <v>31</v>
       </c>
       <c r="D117" s="91" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E117" s="92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F117" s="93" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
@@ -6546,20 +7232,20 @@
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
-      <c r="P117" s="15"/>
-      <c r="Q117" s="44"/>
+      <c r="P117" s="14"/>
+      <c r="Q117" s="43"/>
     </row>
     <row r="118" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="103" t="n">
+      <c r="A118" s="1"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="90" t="n">
         <v>151</v>
       </c>
       <c r="D118" s="91" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E118" s="92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F118" s="93" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
@@ -6600,20 +7286,20 @@
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
-      <c r="P118" s="15"/>
-      <c r="Q118" s="4"/>
+      <c r="P118" s="14"/>
+      <c r="Q118" s="3"/>
     </row>
     <row r="119" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="118" t="s">
-        <v>30</v>
+      <c r="A119" s="1"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="117" t="s">
+        <v>31</v>
       </c>
       <c r="D119" s="91" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E119" s="92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F119" s="93" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
@@ -6655,20 +7341,20 @@
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
-      <c r="P119" s="15"/>
-      <c r="Q119" s="4"/>
+      <c r="P119" s="14"/>
+      <c r="Q119" s="3"/>
     </row>
     <row r="120" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="103" t="n">
+      <c r="A120" s="1"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="90" t="n">
         <v>161</v>
       </c>
       <c r="D120" s="91" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E120" s="92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F120" s="93" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
@@ -6709,20 +7395,20 @@
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
-      <c r="P120" s="15"/>
-      <c r="Q120" s="4"/>
+      <c r="P120" s="14"/>
+      <c r="Q120" s="3"/>
     </row>
     <row r="121" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="118" t="s">
-        <v>30</v>
+      <c r="A121" s="1"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="117" t="s">
+        <v>31</v>
       </c>
       <c r="D121" s="91" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E121" s="92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F121" s="93" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
@@ -6764,20 +7450,20 @@
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
-      <c r="P121" s="15"/>
-      <c r="Q121" s="4"/>
+      <c r="P121" s="14"/>
+      <c r="Q121" s="3"/>
     </row>
     <row r="122" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="103" t="n">
+      <c r="A122" s="1"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="90" t="n">
         <v>171</v>
       </c>
       <c r="D122" s="91" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E122" s="92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F122" s="93" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
@@ -6818,20 +7504,20 @@
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
-      <c r="P122" s="15"/>
-      <c r="Q122" s="4"/>
+      <c r="P122" s="14"/>
+      <c r="Q122" s="3"/>
     </row>
     <row r="123" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="118" t="s">
-        <v>30</v>
+      <c r="A123" s="1"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="117" t="s">
+        <v>31</v>
       </c>
       <c r="D123" s="91" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E123" s="92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F123" s="93" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
@@ -6873,20 +7559,20 @@
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
-      <c r="P123" s="15"/>
-      <c r="Q123" s="4"/>
+      <c r="P123" s="14"/>
+      <c r="Q123" s="3"/>
     </row>
     <row r="124" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="103" t="n">
+      <c r="A124" s="1"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="90" t="n">
         <v>181</v>
       </c>
       <c r="D124" s="91" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E124" s="92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F124" s="93" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
@@ -6927,20 +7613,20 @@
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
-      <c r="P124" s="15"/>
-      <c r="Q124" s="4"/>
+      <c r="P124" s="14"/>
+      <c r="Q124" s="3"/>
     </row>
     <row r="125" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="118" t="s">
-        <v>30</v>
+      <c r="A125" s="1"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="117" t="s">
+        <v>31</v>
       </c>
       <c r="D125" s="91" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E125" s="92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F125" s="93" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
@@ -6982,20 +7668,20 @@
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
-      <c r="P125" s="15"/>
-      <c r="Q125" s="4"/>
+      <c r="P125" s="14"/>
+      <c r="Q125" s="3"/>
     </row>
     <row r="126" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="103" t="n">
+      <c r="A126" s="1"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="90" t="n">
         <v>191</v>
       </c>
       <c r="D126" s="91" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E126" s="92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F126" s="93" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
@@ -7036,20 +7722,20 @@
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
-      <c r="P126" s="15"/>
-      <c r="Q126" s="44"/>
+      <c r="P126" s="14"/>
+      <c r="Q126" s="43"/>
     </row>
     <row r="127" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="118" t="s">
-        <v>30</v>
+      <c r="A127" s="1"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="117" t="s">
+        <v>31</v>
       </c>
       <c r="D127" s="91" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E127" s="92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F127" s="93" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
@@ -7091,20 +7777,20 @@
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
-      <c r="P127" s="15"/>
-      <c r="Q127" s="4"/>
+      <c r="P127" s="14"/>
+      <c r="Q127" s="3"/>
     </row>
     <row r="128" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="103" t="n">
+      <c r="A128" s="1"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="90" t="n">
         <v>201</v>
       </c>
       <c r="D128" s="91" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E128" s="92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F128" s="93" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
@@ -7145,20 +7831,20 @@
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
-      <c r="P128" s="15"/>
-      <c r="Q128" s="44"/>
+      <c r="P128" s="14"/>
+      <c r="Q128" s="43"/>
     </row>
     <row r="129" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="118" t="s">
-        <v>30</v>
+      <c r="A129" s="1"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="117" t="s">
+        <v>31</v>
       </c>
       <c r="D129" s="91" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E129" s="92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F129" s="93" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
@@ -7200,20 +7886,20 @@
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
-      <c r="P129" s="15"/>
-      <c r="Q129" s="4"/>
+      <c r="P129" s="14"/>
+      <c r="Q129" s="3"/>
     </row>
     <row r="130" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="103" t="n">
+      <c r="A130" s="1"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="90" t="n">
         <v>211</v>
       </c>
       <c r="D130" s="91" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E130" s="92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F130" s="93" t="str">
         <f aca="false">IF(F$25="","",F$25)</f>
@@ -7254,20 +7940,20 @@
         <f aca="false">IF(O$25="","",O$25)</f>
         <v/>
       </c>
-      <c r="P130" s="15"/>
-      <c r="Q130" s="44"/>
+      <c r="P130" s="14"/>
+      <c r="Q130" s="43"/>
     </row>
     <row r="131" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="118" t="s">
-        <v>30</v>
+      <c r="A131" s="1"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="117" t="s">
+        <v>31</v>
       </c>
       <c r="D131" s="91" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E131" s="92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F131" s="93" t="str">
         <f aca="false">IF(F$26="","",F$26)</f>
@@ -7309,94 +7995,94 @@
         <f aca="false">IF(O$26="","",O$26)</f>
         <v/>
       </c>
-      <c r="P131" s="15"/>
-      <c r="Q131" s="4"/>
+      <c r="P131" s="14"/>
+      <c r="Q131" s="3"/>
     </row>
     <row r="132" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="119"/>
-      <c r="D132" s="120"/>
-      <c r="E132" s="120"/>
-      <c r="F132" s="121"/>
-      <c r="G132" s="122"/>
-      <c r="H132" s="123"/>
-      <c r="I132" s="123"/>
-      <c r="J132" s="124"/>
-      <c r="K132" s="124"/>
-      <c r="L132" s="121"/>
-      <c r="M132" s="122"/>
-      <c r="N132" s="123"/>
-      <c r="O132" s="123"/>
-      <c r="P132" s="15"/>
-      <c r="Q132" s="4"/>
+      <c r="A132" s="1"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="118"/>
+      <c r="D132" s="119"/>
+      <c r="E132" s="119"/>
+      <c r="F132" s="120"/>
+      <c r="G132" s="121"/>
+      <c r="H132" s="122"/>
+      <c r="I132" s="122"/>
+      <c r="J132" s="123"/>
+      <c r="K132" s="123"/>
+      <c r="L132" s="120"/>
+      <c r="M132" s="121"/>
+      <c r="N132" s="122"/>
+      <c r="O132" s="122"/>
+      <c r="P132" s="14"/>
+      <c r="Q132" s="3"/>
     </row>
     <row r="133" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="125" t="n">
+      <c r="A133" s="1"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="124" t="n">
         <v>241</v>
       </c>
-      <c r="D133" s="126" t="s">
-        <v>98</v>
+      <c r="D133" s="125" t="s">
+        <v>94</v>
       </c>
       <c r="E133" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="F133" s="127" t="str">
+        <v>42</v>
+      </c>
+      <c r="F133" s="126" t="str">
         <f aca="false">IF(F$34="","",F$34)</f>
         <v/>
       </c>
-      <c r="G133" s="127" t="n">
+      <c r="G133" s="126" t="n">
         <f aca="false">IF(G$34="","",G$34)</f>
         <v>100</v>
       </c>
-      <c r="H133" s="127" t="n">
+      <c r="H133" s="126" t="n">
         <f aca="false">IF(H$34="","",H$34)</f>
         <v>100</v>
       </c>
-      <c r="I133" s="127" t="str">
+      <c r="I133" s="126" t="str">
         <f aca="false">IF(I$34="","",I$34)</f>
         <v/>
       </c>
-      <c r="J133" s="127" t="n">
+      <c r="J133" s="126" t="n">
         <f aca="false">IF(J$34="","",J$34)</f>
         <v>0</v>
       </c>
-      <c r="K133" s="127" t="str">
+      <c r="K133" s="126" t="str">
         <f aca="false">IF(K$34="","",K$34)</f>
         <v/>
       </c>
-      <c r="L133" s="127" t="str">
+      <c r="L133" s="126" t="str">
         <f aca="false">IF(L$34="","",L$34)</f>
         <v/>
       </c>
-      <c r="M133" s="127" t="str">
+      <c r="M133" s="126" t="str">
         <f aca="false">IF(M$34="","",M$34)</f>
         <v/>
       </c>
-      <c r="N133" s="127" t="str">
+      <c r="N133" s="126" t="str">
         <f aca="false">IF(N$34="","",N$34)</f>
         <v/>
       </c>
-      <c r="O133" s="127" t="str">
+      <c r="O133" s="126" t="str">
         <f aca="false">IF(O$34="","",O$34)</f>
         <v/>
       </c>
-      <c r="P133" s="15"/>
-      <c r="Q133" s="4"/>
+      <c r="P133" s="14"/>
+      <c r="Q133" s="3"/>
     </row>
     <row r="134" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2"/>
-      <c r="B134" s="9"/>
+      <c r="A134" s="1"/>
+      <c r="B134" s="8"/>
       <c r="C134" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="D134" s="126" t="s">
-        <v>99</v>
+        <v>31</v>
+      </c>
+      <c r="D134" s="125" t="s">
+        <v>95</v>
       </c>
       <c r="E134" s="75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F134" s="93" t="str">
         <f aca="false">IF(F$35="","",F$35)</f>
@@ -7438,110 +8124,110 @@
         <f aca="false">IF(O$35="","",O$35)</f>
         <v/>
       </c>
-      <c r="P134" s="15"/>
-      <c r="Q134" s="4"/>
+      <c r="P134" s="14"/>
+      <c r="Q134" s="3"/>
     </row>
     <row r="135" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="128"/>
-      <c r="D135" s="128"/>
-      <c r="E135" s="128"/>
-      <c r="F135" s="128"/>
-      <c r="G135" s="128"/>
-      <c r="H135" s="128"/>
-      <c r="I135" s="128"/>
-      <c r="J135" s="128"/>
-      <c r="K135" s="128"/>
-      <c r="L135" s="128"/>
-      <c r="M135" s="128"/>
-      <c r="N135" s="128"/>
-      <c r="O135" s="128"/>
-      <c r="P135" s="15"/>
-      <c r="Q135" s="4"/>
+      <c r="A135" s="1"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="127"/>
+      <c r="D135" s="127"/>
+      <c r="E135" s="127"/>
+      <c r="F135" s="127"/>
+      <c r="G135" s="127"/>
+      <c r="H135" s="127"/>
+      <c r="I135" s="127"/>
+      <c r="J135" s="127"/>
+      <c r="K135" s="127"/>
+      <c r="L135" s="127"/>
+      <c r="M135" s="127"/>
+      <c r="N135" s="127"/>
+      <c r="O135" s="127"/>
+      <c r="P135" s="14"/>
+      <c r="Q135" s="3"/>
     </row>
     <row r="136" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="129"/>
-      <c r="D136" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="E136" s="36"/>
-      <c r="F136" s="36"/>
-      <c r="G136" s="36"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="36"/>
-      <c r="J136" s="36"/>
-      <c r="K136" s="36"/>
-      <c r="L136" s="36"/>
-      <c r="M136" s="36"/>
-      <c r="N136" s="36"/>
-      <c r="O136" s="36"/>
-      <c r="P136" s="15"/>
-      <c r="Q136" s="4"/>
+      <c r="A136" s="1"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="128"/>
+      <c r="D136" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E136" s="35"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="35"/>
+      <c r="I136" s="35"/>
+      <c r="J136" s="35"/>
+      <c r="K136" s="35"/>
+      <c r="L136" s="35"/>
+      <c r="M136" s="35"/>
+      <c r="N136" s="35"/>
+      <c r="O136" s="35"/>
+      <c r="P136" s="14"/>
+      <c r="Q136" s="3"/>
     </row>
     <row r="137" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="129"/>
-      <c r="D137" s="130" t="s">
-        <v>101</v>
-      </c>
-      <c r="E137" s="130"/>
-      <c r="F137" s="130"/>
-      <c r="G137" s="130"/>
-      <c r="H137" s="130"/>
-      <c r="I137" s="130"/>
-      <c r="J137" s="130"/>
-      <c r="K137" s="130"/>
-      <c r="L137" s="130"/>
-      <c r="M137" s="130"/>
-      <c r="N137" s="130"/>
-      <c r="O137" s="130"/>
-      <c r="P137" s="15"/>
-      <c r="Q137" s="44"/>
+      <c r="A137" s="1"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="128"/>
+      <c r="D137" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="E137" s="129"/>
+      <c r="F137" s="129"/>
+      <c r="G137" s="129"/>
+      <c r="H137" s="129"/>
+      <c r="I137" s="129"/>
+      <c r="J137" s="129"/>
+      <c r="K137" s="129"/>
+      <c r="L137" s="129"/>
+      <c r="M137" s="129"/>
+      <c r="N137" s="129"/>
+      <c r="O137" s="129"/>
+      <c r="P137" s="14"/>
+      <c r="Q137" s="43"/>
     </row>
     <row r="138" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2"/>
-      <c r="B138" s="131"/>
-      <c r="C138" s="132"/>
-      <c r="D138" s="132"/>
-      <c r="E138" s="132"/>
-      <c r="F138" s="132"/>
-      <c r="G138" s="132"/>
-      <c r="H138" s="132"/>
-      <c r="I138" s="132"/>
-      <c r="J138" s="133"/>
-      <c r="K138" s="132"/>
-      <c r="L138" s="132"/>
-      <c r="M138" s="132"/>
-      <c r="N138" s="132"/>
-      <c r="O138" s="132"/>
-      <c r="P138" s="134"/>
-      <c r="Q138" s="4"/>
+      <c r="A138" s="1"/>
+      <c r="B138" s="130"/>
+      <c r="C138" s="131"/>
+      <c r="D138" s="131"/>
+      <c r="E138" s="131"/>
+      <c r="F138" s="131"/>
+      <c r="G138" s="131"/>
+      <c r="H138" s="131"/>
+      <c r="I138" s="131"/>
+      <c r="J138" s="132"/>
+      <c r="K138" s="131"/>
+      <c r="L138" s="131"/>
+      <c r="M138" s="131"/>
+      <c r="N138" s="131"/>
+      <c r="O138" s="131"/>
+      <c r="P138" s="133"/>
+      <c r="Q138" s="3"/>
     </row>
     <row r="139" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="3"/>
-      <c r="M139" s="3"/>
-      <c r="N139" s="3"/>
-      <c r="O139" s="3"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="4"/>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="H3:O3"/>
     <mergeCell ref="C4:D4"/>
@@ -7561,6 +8247,7 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="I13:O13"/>
+    <mergeCell ref="D14:I14"/>
     <mergeCell ref="C15:O15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
